--- a/xlsx/orcid-supported-work-types.xlsx
+++ b/xlsx/orcid-supported-work-types.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -23,64 +26,100 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">book</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Books written by a single author or collaboratively based on research or scholarly findings generally derived from peer reviewed funding.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Publications</t>
   </si>
   <si>
-    <t xml:space="preserve">Books written by a single author or collaboratively based on research or scholarly findings generally derived from peer reviewed funding.</t>
-  </si>
-  <si>
     <t xml:space="preserve">book-chapter</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: book chapter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Texts written by a single author or collaboratively based on research or scholarly findings and expertise in a field.</t>
   </si>
   <si>
     <t xml:space="preserve">book-review</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: book review</t>
+  </si>
+  <si>
     <t xml:space="preserve">Critical review of works of fiction or non-fiction highlighting the contributions to an art, field or discipline.</t>
   </si>
   <si>
     <t xml:space="preserve">dictionary-entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: dictionary entry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entries of new words, new meanings of existing words, changes in spelling and hyphenation over a longer period of time, and grammatical changes.</t>
   </si>
   <si>
     <t xml:space="preserve">dissertation</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: dissertation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatise advancing an original point of view resulting from research: a requirement for a doctoral degree.</t>
   </si>
   <si>
     <t xml:space="preserve">encyclopedia-entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: encyclopedia entry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authored entries in a reference work or a compendium focusing on a particular domain or on all branches of knowledge.</t>
   </si>
   <si>
     <t xml:space="preserve">edited-book</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: edited book</t>
+  </si>
+  <si>
     <t xml:space="preserve">Books edited by a single author or collaboratively for the dissemination of research or scholarly findings that generally result from peer reviewed funding.</t>
   </si>
   <si>
     <t xml:space="preserve">journal-article</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: journal article</t>
+  </si>
+  <si>
     <t xml:space="preserve">Articles in peer-reviewed publications that disseminate the results of original research and scholarship.</t>
   </si>
   <si>
     <t xml:space="preserve">journal-issue</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: journal issue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Periodical publications aimed at fostering intellectual debate and inquiry.</t>
   </si>
   <si>
-    <t xml:space="preserve">magazine article</t>
+    <t xml:space="preserve">magazine-article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publications: magazine article</t>
   </si>
   <si>
     <t xml:space="preserve">Articles in thematic publications published at fixed intervals.</t>
@@ -89,187 +128,304 @@
     <t xml:space="preserve">manual</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: manual</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course and assignment materials produced for teaching purposes.</t>
   </si>
   <si>
     <t xml:space="preserve">online-resource</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: online resource</t>
+  </si>
+  <si>
     <t xml:space="preserve">Information accessible only on the web via traditional technical methods</t>
   </si>
   <si>
     <t xml:space="preserve">newsletter-article</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: newsletter article</t>
+  </si>
+  <si>
     <t xml:space="preserve">Articles in publications aimed at researchers, decision-makers, professionals and the public that report on a research project or on the activities of a research chair or a research center.</t>
   </si>
   <si>
     <t xml:space="preserve">newspaper-article</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: newspaper article</t>
+  </si>
+  <si>
     <t xml:space="preserve">Articles in a daily, weekly or monthly publication reporting on news and social issues aimed at the public.</t>
   </si>
   <si>
     <t xml:space="preserve">preprint</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: preprint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version of a paper made publicly available before formal peer review and publication.</t>
   </si>
   <si>
     <t xml:space="preserve">report</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: report</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reports disseminating the outcomes and deliverables of a research contract.</t>
   </si>
   <si>
     <t xml:space="preserve">research-tool</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: research tool</t>
+  </si>
+  <si>
     <t xml:space="preserve">Series of observations, measurements or facts identified from the research.</t>
   </si>
   <si>
     <t xml:space="preserve">supervised-student-publication</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: supervised student publication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Articles on research findings published jointly with or supervised by the thesis adviser.</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assessments that include tests designed for general university selection, selection into specific courses or other evaluation purposes.</t>
   </si>
   <si>
     <t xml:space="preserve">translation</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: translation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Translations of books and articles that identify modifications to the original edition, such as a new or revised preface.</t>
   </si>
   <si>
     <t xml:space="preserve">website</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: website</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stand-alone locations on the web where multiple types of information on a specific theme are available.</t>
   </si>
   <si>
     <t xml:space="preserve">working-paper</t>
   </si>
   <si>
+    <t xml:space="preserve">Publications: working paper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preliminary versions of articles that have not undergone review but that may be shared for comment.</t>
   </si>
   <si>
     <t xml:space="preserve">conference-abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">Conference: conference abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texts of a specified length that states the issue to be discussed in a proposed conference paper.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conference</t>
   </si>
   <si>
-    <t xml:space="preserve">Texts of a specified length that states the issue to be discussed in a proposed conference paper.</t>
-  </si>
-  <si>
     <t xml:space="preserve">conference-paper</t>
   </si>
   <si>
+    <t xml:space="preserve">Conference: conference paper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papers written alone or collaboratively, presented at an academic conference, and published in the proceedings (not in scholarly journals).</t>
   </si>
   <si>
     <t xml:space="preserve">conference-poster</t>
   </si>
   <si>
+    <t xml:space="preserve">Conference: conference poster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Posters displayed in a conference setting and conveying research highlights in an efficient manner by compelling graphics.</t>
   </si>
   <si>
     <t xml:space="preserve">disclosure</t>
   </si>
   <si>
+    <t xml:space="preserve">Intellectual property: disclosure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publications that establish inventions as prior art thereby preventing others from patenting the same invention or concept.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intellectual property</t>
   </si>
   <si>
-    <t xml:space="preserve">Publications that establish inventions as prior art thereby preventing others from patenting the same invention or concept.</t>
-  </si>
-  <si>
     <t xml:space="preserve">license</t>
   </si>
   <si>
+    <t xml:space="preserve">Intellectual property: license</t>
+  </si>
+  <si>
     <t xml:space="preserve">Signed agreements to exploit a piece of IP such as a process, product, data, or software.</t>
   </si>
   <si>
     <t xml:space="preserve">patent</t>
   </si>
   <si>
+    <t xml:space="preserve">Intellectual property: patent</t>
+  </si>
+  <si>
     <t xml:space="preserve">A form of IP protection that defines the exclusive right by law for inventors and assignees to make use of and exploit their inventions, products or processes, for a limited period of time.</t>
   </si>
   <si>
     <t xml:space="preserve">registered-copyright</t>
   </si>
   <si>
+    <t xml:space="preserve">Intellectual property: registered copyright</t>
+  </si>
+  <si>
     <t xml:space="preserve">Registered ownership of rights under a system of laws for promoting both the creation of and access to artistic, literary, musical, dramatic and other creative works.</t>
   </si>
   <si>
     <t xml:space="preserve">trademark</t>
   </si>
   <si>
+    <t xml:space="preserve">Intellectual property: trademark</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marks such as a name, word, phrase, logo, symbol, design, image of a product or service that indicates the source and provides the right to control the use of the identifier.</t>
   </si>
   <si>
+    <t xml:space="preserve">annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotations contain comments or descriptions about another resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">artistic-performance</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
+    <t xml:space="preserve">Other: artistic performance</t>
   </si>
   <si>
     <t xml:space="preserve">Collection of information records that, in combination, represent a full and up-to-date history of artistic or performance outputs resulting from, or related to, the person's research or scholarly activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">data-management-plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: data management plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formal statement describing how research data will be managed and documented throughout a research project and the terms regarding the subsequent deposit of the data with a data repository for long-term management and preservation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">data-set</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: data set</t>
+  </si>
+  <si>
     <t xml:space="preserve">A series of structured observations, measurements or facts identified from the research which can be stored in a database medium.</t>
   </si>
   <si>
     <t xml:space="preserve">invention</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: invention</t>
+  </si>
+  <si>
     <t xml:space="preserve">Practical and original outputs arising from research.</t>
   </si>
   <si>
     <t xml:space="preserve">lecture-speech</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: lecture or speech</t>
+  </si>
+  <si>
     <t xml:space="preserve">An informative talk related to research delivered to an audience.</t>
   </si>
   <si>
+    <t xml:space="preserve">physical-object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: physical object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specimen, sample, or other physical object used for research purposes; an inanimate three-dimensional object or substance.</t>
+  </si>
+  <si>
     <t xml:space="preserve">research-technique</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: research technique</t>
+  </si>
+  <si>
     <t xml:space="preserve">A practical methods or skills applied to particular tasks identified as part of the research.</t>
   </si>
   <si>
     <t xml:space="preserve">software</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: software</t>
+  </si>
+  <si>
     <t xml:space="preserve">A program used to operate a computer or other technical device.</t>
   </si>
   <si>
     <t xml:space="preserve">spin-off-company</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: spin-off company</t>
+  </si>
+  <si>
     <t xml:space="preserve">A company set up by a Research Organization to make commercial use of the results and findings of the Research project.</t>
   </si>
   <si>
     <t xml:space="preserve">standards-and-policy</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: standards and policy</t>
+  </si>
+  <si>
     <t xml:space="preserve">The development of a rule or principle that is used as a basis for judgement.</t>
   </si>
   <si>
     <t xml:space="preserve">technical-standard</t>
   </si>
   <si>
+    <t xml:space="preserve">Other: technical standard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technical Standards (industrial or otherwise) that have originated from the research projects in which new protocols, methods or materials may be developed.</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: other</t>
   </si>
   <si>
     <t xml:space="preserve">Any other type of work.</t>
@@ -602,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -614,445 +770,742 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
